--- a/Data/Simul/Test3/Calib_4.xlsx
+++ b/Data/Simul/Test3/Calib_4.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1440389878769111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.1420354171994103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1415883183865453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.1438848236136747</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.1422389715147302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.1788783309977113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1830720707208899</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.1844609556585756</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.1649997610430693</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.1340062649726522</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.1519012647912221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.1698315777595357</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.1822307185570285</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.1747120713962368</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.1612829767196759</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.0878096206869937</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.1552947096462164</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.19904651860669</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.07731869359840352</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.08022555995554564</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.1159571964608449</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.199879826567553</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.2967715382694457</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.4305309433277755</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.22275020218067</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.3763962774637872</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.5480689633496126</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.5362356248609513</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.1399286836514583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.1475022128075005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.149812637341328</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.142815405767878</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.1480401098537792</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.07831492114406628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.07891238182491234</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.08650076507672388</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.1249880943442838</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.1713926891110455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.1215456233089849</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.08114609011433839</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.03934441256953279</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.01104802607031188</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.004086848688094225</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.000212691932632612</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.0006430407963458907</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.001182188963614013</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>0.0001260870105780411</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>2.46770529924149e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>3.840222633243555e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>3.476285538175881e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>2.07855664487345e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>1.691485097300798e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>2.280759346325494e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>1.078104614718865e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>3.039095990417387e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>1.006833068418166e-05</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1399286783960517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1475022179123218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.1498126450285404</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.142815402666061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.1480401146206488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.078315480049229</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.07891316221143824</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.0865018001546802</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.1249892657410377</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.1713934215666224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.1841693985456658</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.1942103212712387</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.2176427540791178</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.2544483877346639</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.2773924849611185</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.32971402708568</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.2953917555062227</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.2627451915106446</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.3344927566077534</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.3432483658112778</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.2940345956440527</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.1987373959152422</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.09862887341483351</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>0.03408782080342448</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>0.08964519620837759</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>0.04194155228225611</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>0.009941841515855487</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>0.0002361707526622199</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1399266999443757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.1475041393963515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.1498155385356354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.1428142347064499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1480419087664069</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.07830670159195026</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.07890051864794696</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.08648479947110126</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.1249703680886468</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.1713827854130601</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.194242333565421</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.2171091768133223</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.2320617960857136</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.220533362090657</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.2019974609974213</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.1123020074174524</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.1960167553881949</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.2493634960561397</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.09910678646004499</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.1032710198522447</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.1381481314318076</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.2167054342573343</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.3181467882585679</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.3923191596513284</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.298746397738767</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.3939113678797103</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.3952451130658232</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.4622182258658546</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.1469745330448505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.1351966923778289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1314228893175625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.1418360520498907</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1339883219558236</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.2003973426696854</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.1954640773036139</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.1830758223841823</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.1458000277757201</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.1080042338906958</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.1146593002116629</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.1192463888155439</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.1328022266608292</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.1564949008275268</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.1709621809698161</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.2356289411572292</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.1733359328783227</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.1389328852720901</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.2456138200016107</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.2366941132335842</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.2379553514588657</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.2232617850003781</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.1898628415855849</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.1041466398463163</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>0.2788156245101908</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>0.1338263252666154</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>0.03276636322251271</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>0.0007949544882779367</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.1423537491318523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.1446801736387405</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.1455615813034495</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.1438226930275405</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.1451844864934193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.185681234235924</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.189252841403485</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.1894580821638285</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.1675999895450037</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.1348974137028968</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.1177430472405787</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.09796266189046228</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.06165730388580527</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.02462435909722406</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.01152400631117602</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.0008558584616861094</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.002643456898258961</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.004976269259100916</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.0005892550164191055</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.0001771643871710473</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.00030420947000044</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>0.0003306186578943459</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>0.0002272738153057216</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.0002204703941487218</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>3.208927837378284e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>0.0001506685376581547</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>0.0004787480986308016</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>0.0001720444867401377</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1468486679545003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1355791466678465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1319863900869389</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.1420113881685051</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.1344660867951918</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.2001059893114338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.1954849478877136</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.1835177750909083</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.1466524934622384</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.1089231913430273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.1157390323364645</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.1204937833355588</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.1342607881619728</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.1581388927833796</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.172754041352698</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.233476853258326</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.1766743488864385</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.1437534503317206</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.2427526013051901</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.2363590997071842</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.2135621133080962</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.1610501767462162</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.09634189908981344</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.03867805112603349</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>0.1100082093242744</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>0.05376302752382566</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>0.01346857978766086</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>0.0003329112148294054</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1418326433968261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.1386699308388921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.1377746690838247</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.138381468821391</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1364050045819263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.1104797554357038</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.07975674825477203</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.1316050924260775</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.140001732680622</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.1195020614468771</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.09545872601147508</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.07621342725606373</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.04288960590771595</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.03008324862211154</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.02251198743823458</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.0265135065184788</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.03430429915845439</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>0.05232118349619183</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>0.1276473378759315</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>0.09367370580416688</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>0.06768708496085772</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>0.05184361465467227</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>0.01947448196965724</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>0.02470822792563764</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>0.04337752483392911</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>0.04408090015953098</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>0.01155145117640713</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>0.005901283586638099</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.1466626340786226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1557605915724319</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1581155505852255</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.1582354043552213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.1634226118370444</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.2001106348178872</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.2413883136691992</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.1753033468487978</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.170797056780993</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.1975633951593062</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.3394736730852492</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.4415416497907075</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.6061021731694562</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.6730798251854434</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.7143968535790698</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.6941731666190738</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.6536017315440903</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.5959704227714283</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.3955583441764265</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.4964037876884875</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.5760192256515596</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.624064601282575</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.7156780559354392</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.7009154877903069</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.6539406668091489</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.6543623662137903</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.7321049617507567</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.7118455467385221</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.1466626393575576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1557606116746238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.1581155747944598</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1582354266431749</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1634226429328376</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.2001099074876188</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.2413866822370694</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.1753034312066215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.1707975856008641</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.197563381200021</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.1294304132162252</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.08443030358831047</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.03969499590004327</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.0237732097084828</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.015623787734862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.02042049653258871</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.01739186652823705</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>0.02391059251061518</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>0.05386238008285581</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>0.03004903975543749</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>0.01672037481033578</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>0.01024030156390709</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>0.001974639077285101</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>8.635065478793739e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>5.89864524245313e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>4.859653791064335e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>4.545946920895531e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>5.797913362938262e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1466646265349962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1557681790951323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1581246883492499</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1582438167121176</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1634343487363564</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.2001376253271281</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.241433302336145</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.1753150953432663</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.1708011399650174</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.1975784327804311</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.1588149506295995</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.1275387317598314</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.07220419353992519</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.05087753586382696</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.03821331059575803</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.04509940195357003</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.0579054201671001</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.08855804281260635</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.2174751021803426</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.1586476834369512</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.1095029486593525</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.0807954659606262</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>0.02683587230887525</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>0.03063881054146031</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>0.06205822888372256</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>0.06178345757024129</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>0.01317530037062539</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>0.00522182925554701</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.1369593793609499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1236255330098507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.1202584959587091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.1193791954542463</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.1119519165159852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.08444099858938546</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.05499150305977869</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.09952311964842576</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.09782380958781189</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.07934041862073002</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.05096634938208437</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.03252985963140224</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.01503675865378644</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.008852662693226699</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.005734700908763444</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.007751606452457642</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>0.005859385560828415</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>0.006817770345152939</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>0.01367633100579154</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>0.007071884755079947</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>0.004228957540612139</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>0.002761950271547377</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>0.0006348995742677097</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>9.307534872820168e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>0.0004031065356466999</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>0.0003344425498681074</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>3.196117750464199e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>4.206138223348824e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1440054719387493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1460542868497554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1465047631066105</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.147183267904456</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1482087962612448</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.1191996185966671</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.08518433928729513</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.142069272718187</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.1503145512904369</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.1276632216433042</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.1738866450933766</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.2045245148047642</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.2086974097612052</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.2042707440981472</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.1976424946975035</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.198138026864187</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.2248604281690668</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.2251403309345112</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.1769085757688672</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.2063789791213737</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.2214117378172311</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.2275226948091341</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.2348362722575917</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.2436266230040835</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.2401048295161906</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.2393430013049372</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.2431271972276099</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.2770259380691518</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.1372126053322984</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.1243608669593138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1211062581219206</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1203414201093929</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.1131546791346053</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.08552145974560954</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.05585911115574049</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.1008806418086243</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.09946412409425476</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.08078908914933036</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.05196924258199023</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.03322151316892067</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.01537486306786774</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.009062773828761422</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.005876865045808916</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.007903795059644116</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>0.006076868872222971</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>0.007281657129494256</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>0.01487192890978486</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>0.007774919438503145</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>0.0044296705600512</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>0.00277137145753792</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>0.0005657788768838437</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>9.140324304562326e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>5.665696893748796e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>4.723566372150226e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>4.582350175455368e-06</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>6.164205812822833e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1419469487890027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1435273855264632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1414291127017593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.1389798586396122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.1366624863807137</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.1621128664432587</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.1729845746796574</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.1506017827546334</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.1273995430129204</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.06706551377538042</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.06266627320691137</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.06468334631785769</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.05914993775822761</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.06541840600462653</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.0564791873576528</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.04784951436236166</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.07525310324934811</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.08957311408193938</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.108585756797595</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.1119124264510089</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.1178889735760407</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.1101138373656265</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>0.05863840873184102</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>0.0469426198069168</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>0.03628635377940984</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>0.0100043875797281</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>0.005192653650051544</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>0.003612246954232398</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1458953224488698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.1403067137271554</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1471507546988582</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1542816573686889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.1602754622707842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.1197096911121393</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.1109799640031391</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.1454649054912035</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.1833735892216266</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.257248458161818</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.3209591793113852</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.2825934761436867</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.3770200588064891</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.2736031771385068</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.3959297242182925</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.4925823054651893</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.2792696164428888</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.2568678110141926</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>0.2129033032975209</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>0.1674356909306848</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>0.08464016333454015</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>0.01624453818997587</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>0.001882001949442016</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>0.001125196254093664</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>0.0006671727666985648</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>0.000111385473926053</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>4.435938414562498e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>2.692606940038372e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.1458953269846356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1403067101900831</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.1471507615514615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.1542816758623117</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.1602754914185855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.1197102205667042</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.1109810275021701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.1454656398550324</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.183374561845264</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.2572465037378792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.2181041426504055</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.2442359627959552</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.1789260164299348</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.2469308816654059</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.1732568045627121</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.121266173787529</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.2114042513206002</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.1733884343361849</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.1386088284010034</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.1720618434278476</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.2039712736645678</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.2226843460314658</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.3496869745662962</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.4240484498966515</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.5008641576899617</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.7016102050940692</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.7471036644181291</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.7643067988549472</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.1458970344484881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.1403053787042402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1471533412221108</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1542886378368164</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1602864642895241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.1197095392011888</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.1109703824431949</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.1454632197569639</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.1833706889280689</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.2572991070473212</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.2411049065688425</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.2483525343906724</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.2284949502933523</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.2512802747707654</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.2182141778957002</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.1840865886100576</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.2916007385090984</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.344677268972183</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.4147427339125101</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.4289385836077347</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.4927140319254831</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.5667131189419928</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.4605970716798201</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>0.3876561567672944</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>0.3144162249907571</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>0.09987145744542453</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>0.05559849264150386</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>0.04012932363978534</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1382498893083615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.1468243060432364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.1364985873892827</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.1260227671107338</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.1174995777324243</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.1513148141606357</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.1533561304309236</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.1253608377558292</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.09330423931308231</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.0451131286181078</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.03785126872207993</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.04282608684075701</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.03060029771435199</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.04339784695979161</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.02975398921738457</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.0197941245360124</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.03261698334319742</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.02397222459111797</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.01689898715095172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.02235409503136359</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.03003171926063499</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.0400381315718664</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.06914333808377263</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.07188179240530727</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.07205968827073803</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.09433021444123472</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.09723393041734997</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.09773876502822425</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1436784674498769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1420791611902596</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.1438788836358995</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1454969863408019</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.1465941544651292</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.1753140648022293</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.1862811445235532</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.1611660326423154</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.1346861872926251</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.07024238581862347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.08087070611619254</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.07384494065969027</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.09469738227504171</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.07533350071804026</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.09612472751853907</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.1141559959517871</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.07612309992834122</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.08633431111602025</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.09017997247668665</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.07360874421009331</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>0.04071880555248121</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>0.008733797138705902</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>0.00104704469350245</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>0.0006456565595422103</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>0.0003932719524755109</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>6.829015534052797e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>2.778815572949415e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>1.70514724421161e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.1384370105707655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.1466503446185623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.136738558800628</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1266484168410354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.1184063634428388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.152128803713844</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.1544467764173618</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.1264775817440221</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.09449119038641271</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.04578490284087007</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.03844352342418293</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.04346365285138048</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.03111135672260242</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.04403591274286359</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.03024138922971878</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.02026529728706302</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.03373220720652595</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.02518683588836199</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.01808041796373227</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.02368861634126691</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.03003503268625218</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.03547223076036662</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.05900516029532558</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.06770012831019419</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.07531313054995918</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.09400405981027699</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.09479911133309032</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.09416888798096834</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.1463089633262341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.1452222868724964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1436582658923982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.1447465470626778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1456653237780611</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.155450318003077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.1373500614971185</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.1159675939023682</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.1180167594780253</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.09978420643113205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.09085465561586403</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.06264865960038941</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.04353561587571748</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.03095500452921655</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.008251164205974614</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.0158654126017578</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.009432905484893193</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.00528937093384198</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.009850928593447288</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.006727316349123305</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.002646187461332252</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.004148320987748662</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.001938418527852671</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.011028314428802</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.03158761119098615</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.01627239887449491</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.0146112696233349</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.05617186425861033</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1279212185417538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.1332646326853282</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1396089814702472</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.1349236478169372</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1301390723355495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.1235170997490052</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.1585702024471399</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.1901007971280618</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.1955433188067252</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.2207534269591885</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.3140925447336974</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.5122639812461588</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.6009017212126865</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.6643543794853261</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.7591123110861778</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.7200608836442761</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.758591453182659</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>0.7939034717244645</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>0.7212905631052836</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>0.7396379019855626</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>0.7401343191292007</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>0.7253185622521158</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>0.7481110846257182</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>0.710825366255917</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>0.6178399670712227</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>0.6495611585937174</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>0.6504994180598526</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>0.5040833158146816</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1279211992517213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.1332646199529266</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.1396089772631734</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.1349236374832875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1301390562411611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.1235176230923973</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.1585708889142877</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.1901009406496864</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.1955444769105557</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.220754478246465</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.1657789165263176</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.0599534647155022</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.03164699868695545</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.01894825315507851</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.001840338072160297</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.006533106489995735</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.003124390993232373</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.001454001855320605</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.00197211821247</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.001068635088300179</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.0001919569589042252</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.0004029125783800644</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.0001064312247984066</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.0005702248075518776</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.00140436746125311</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.0002118952937707815</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.002787322218132419</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>0.001370981678149502</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1279139379138773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1332598270751431</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1396073936131759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.1349197475927887</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1301329978679276</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.1235024552663949</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.1585511592562391</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.1900891670223711</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.195514697996184</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.220725336402653</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.2020907517034795</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.141934279995441</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.09940811764969104</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.07102685633216704</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.01952855450133967</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.03797871521965741</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.02246740053028456</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.01254231519203763</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.02323441365054738</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.0157902136270982</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.005249774691226299</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.008759791030744981</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.003715677924640288</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.02904445410729628</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.1134952923735436</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.04455541272051589</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.03754497029512543</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.1927302502296972</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1665957325590368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.157951121264147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.1479745243691853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.1554116705859888</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.163206896070755</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.1637988838522416</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.1292521258545068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.1028684362574647</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.09313371896540713</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.07311873001988448</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.05377839577326597</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.01823451451722109</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.00934233042727179</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.005488091336539981</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.0004905593411130884</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.00208739016002129</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.0009438819931988575</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.0004193113112756075</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.0005141519658630026</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.0002606409971617731</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>5.584386943158296e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.0001123676901589199</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>3.486826469686597e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.0002696714169622389</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.001281145456612071</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.0001975575902815201</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.002745032446420603</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>0.001415590365543974</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.137844103246438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.1397637313941867</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.14179298754806</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.140235193104448</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.1384727705160164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.1470423666497342</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.1285218444343663</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.1078851662031263</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.1086620626444705</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.09122953277552</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.1191667467178981</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.1864913200061137</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.2056801560227767</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.2036478898104147</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.2102755100594145</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.2153942465143976</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>0.2044917687331636</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>0.1859675081724099</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.24261020275152</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>0.2362452180167776</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>0.2516706548369322</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>0.2611509543127944</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>0.2460636893343322</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>0.2480800409539642</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>0.2338300137804304</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>0.289113633542201</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>0.2905464893948689</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>0.2435530506497127</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1654948451609388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.1572737807557719</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1477488698437601</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1548395563538723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.1622438831905291</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.1631712533871498</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.1291837175963417</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.1029878988369215</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.09358496519863206</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.073634289165157</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.05423798892947753</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.01847377991917389</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.009485060124901242</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.005579525351257176</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.0005015627338199718</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.00208024536989405</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.0009481990825684794</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.0004240208106496441</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.0005276217208686527</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.0002700739359763043</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>5.126305297264251e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.0001070911480570541</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>2.983009796121235e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.0001819280295065868</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.0005616026659520767</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>8.794338501858488e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.001265497962265261</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>0.0006749470036045789</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1416325400226675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.1396649336164272</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.141799161216184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.1440254138460723</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1462522899886962</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.1655573740592885</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.1760481598330571</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1752423355964475</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.1755364595568887</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.1759164901282251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.1880388201882685</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.1753647708361451</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.1651429281320344</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.149647162356782</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.1227856453990995</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.08055264981482484</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.06048559424384484</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.04934939577718791</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.02862112165502442</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.01867093255524843</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.009114771021842287</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.006925042605298705</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.0008525684643582286</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.0005234250892963443</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>6.776621526948038e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>4.1944607012226e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>2.82556092441204e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>1.91181777653207e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.1470731767312403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1527379811427962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1458726832950911</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.137168891754843</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1246049487183839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.08151186254452096</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.04878408337989919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.02944966533545312</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.02859075031624685</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.04856275599582892</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.05526630192002195</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>0.03341426886477187</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>0.01509916006629964</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>0.01032382797508287</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>0.005795011898704634</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>0.001223848811358937</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>0.0005967197195958124</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>0.0001979261680062549</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>6.387383513375989e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>2.716175515708639e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>7.152559799332164e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>4.043662929525798e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>3.878355390808683e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>1.612013064237251e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>1.774595084525313e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>8.557903677563947e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>4.808255331863332e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>2.81834305000186e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1470731828796286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.1527379965873583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.1458726882244672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1371688847324405</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.1246049270827242</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.08151221108952415</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.04878453122671775</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.02945005014251131</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.02859113587851756</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.04856326840765153</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.04380943996737319</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.05196059009170848</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.05982365169507018</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.06264775625545192</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.06570940093589413</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.06964748476714536</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.06732086263298158</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.07090300018820871</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.06415805485579508</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.05846599807614448</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.07235232890602732</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.07805975402966944</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.08525238638219727</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.09728234849579555</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.08742982297753915</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.08955687201836726</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.09148686542278466</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.09379725609463786</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.14707549738704</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1527438106747951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1458745438979615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.1371662413152866</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1245967829344039</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.08150054253452658</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.04877336534172653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.02944130892935911</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.02858244021999289</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.04855098859713609</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.05212680787499467</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.04832223450625747</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.04514417045623397</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.0407564194966047</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.0332490213453289</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.02213450814679358</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.01670455023199127</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.01376104686404517</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.008045931116336658</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.005279932866242458</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.002885170669160232</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.002295191188997378</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.0004270135498728912</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>0.000281325611180249</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>5.001257638965866e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>3.284884024658193e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>2.31594081551698e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>1.629423965283474e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.1364207614044646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.128121100893647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.1384471134286321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.1520469475759246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.1727122624817562</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.2184297034463928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.2570734393935772</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.2866509906908181</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.2876437772077129</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.2575553364048947</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.2278043044424067</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.2785562245194014</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.3230665271700708</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.344413411401647</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.3736246260912002</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.4143283823488759</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.4330326155212293</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.4378055921931789</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.4601539104180034</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.4740483160040768</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.423561771361937</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.4042781062608003</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.3648682290274357</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.3279500378906027</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.3365720873637097</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.3384764062284012</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.340143002680071</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.3420499654246981</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.1440384494050945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.1453053642092527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1435292579988289</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1408260714113486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1360264184870487</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.1556557888144324</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.1672257170771642</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.1682601297621631</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.1685831916476307</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.1671038707715302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.2082008866704954</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.1381623486417851</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.073811402601659</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.05372983407652804</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.03254944028456519</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.00764324166508033</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.003973685626235996</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>0.001489975406473793</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>0.0005185912088362594</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>0.0002330962869784518</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>6.541244924364172e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>3.82545537604962e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>3.557296478018234e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>1.538485881653001e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>1.696120837775304e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>8.360480607635013e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>4.769613893936377e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>2.827699016852609e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.1366863921698642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1286888128757234</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1386045519388352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.1515975493640844</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1712023703069867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.2158325175113145</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.253310703747858</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.2815055195432479</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.2824722451730103</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.2537472896947336</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.2247534389364395</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.2742195625399306</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.3179121598786321</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.3384815884379033</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.3662868540452075</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.404469884445921</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.4178859720241213</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.4264930634028992</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.4384385169108705</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.4432745624561523</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.4920133930319903</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.5083996076985442</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.548595857444119</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.573961163225937</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.5758801235090574</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.571891836143263</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.5683186643753507</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.5641173349679126</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1417196800173944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1408918874965508</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.1398491460740976</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.1419188622767174</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.1435496031392819</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.1480782751841276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.1124176260855326</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1354121305447695</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.1156701586737936</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.09361397013337269</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.0877347192459937</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.07891631226745613</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.09183870914320627</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.0814949216991262</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.06071805076247137</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.07827239092964172</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.09937278957727509</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.0625407527730891</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.09015043224747056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.071380682127891</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.05309956349999568</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.03217208133729772</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.01696297530146384</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.01740851297026208</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>0.003371875872129285</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>0.0007452982198503685</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>0.0004615665833670658</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>0.0002547509952554877</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.1465517573109544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.1490779090249365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1520610374695666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1443655885621616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.1387792948445594</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.1353586815519783</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.190387065122339</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.1555104597758007</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.1858351616369952</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.2181383246617035</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.2836041821579586</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.3678829997360209</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.3317159726260237</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.4046736193688458</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.5227294273091667</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.4247020841658286</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.2531781782909282</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.4927154070853653</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.3482535137705247</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.4695774432008315</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.5704010506822033</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.6689659963942353</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.717496370850199</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.7011947071241924</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.7358686662034941</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.7373807372659532</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.7005755456326638</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.7123272928919057</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.1465517629250314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1490779186343149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.152061052008031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1443655922140241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1387792902411208</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.1353590733182716</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.1903864052122573</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.1555104982872875</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.1858345789341367</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.218136923556619</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.1824548826694707</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.1386857220942276</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.1359160583262083</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.1020185107774268</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.05289994733727257</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.08736279788570978</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.1687168508364617</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.07294122553454237</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.1241868887567881</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.07241930852412574</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.03772817703744622</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>0.01574316432448908</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>0.003250951132828392</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>0.001919420192459913</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>0.0001114122920131889</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>6.578341504384525e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>7.377633784381375e-07</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>1.611510238433711e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1465538763238244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1490815360659334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.1520665250180968</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1443669670690253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1387775574359379</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.1353504537513125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.1903954547080025</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.1555077917873885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.1858423381074591</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.2181585707991111</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.2051332130832619</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.1853791057246127</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.2160312865037132</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.1925595401215366</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.1448728981570389</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.1877131074484345</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.2404300096500162</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.149934441434285</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.2175295684391141</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.1711339665615703</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.1200075154844539</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.06812431033902884</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.03057551764603832</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>0.02927189725490642</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>0.004311964319117354</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>0.000693888751888896</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>0.0003045584675201576</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>0.0001473662808999605</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.1372875414647849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1335332815072866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1291704984083407</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1410855443074528</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.1495999090714794</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.1503393065420776</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.1034841213860237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.1328021364699244</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.1070662314931606</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.08061247233833849</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.06660123624530795</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.04967450713851694</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.04691325740271549</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.03453092313534769</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.01717970632369428</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.03054572017777301</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.06614816451387108</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.02615206659304179</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.04268070564513936</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>0.02280182096193785</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>0.01316151840531783</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>0.006088670035238673</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>0.001625418129554529</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>0.001159030344003248</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>8.656421104765779e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>5.21851207997331e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>6.043340522142122e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>1.356359001599769e-07</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.143825509143662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1444384865276618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.1450973101841295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.1428072068731819</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.1412626072498535</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.1453966491067105</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.1093116713332521</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.1325156140108983</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.112556441563354</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.09046029541171996</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.1075912673393344</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.1295109362094294</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.1302793409535339</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.1498540157472993</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.1842009105408816</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.1608009971833969</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.1069497448893088</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.1696109071538095</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.1341728477427417</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.1694062858426394</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.1930551737276461</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.2034898968541587</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.2288730298364925</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.2482806389221872</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.2562014596509561</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.2611653387968998</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.2986566389384178</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.2872702133926509</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1375098728143485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.133898980743316</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1296944308377378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1410902386974368</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.149251738017767</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.1501175605455219</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.1036176561525927</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.1327413691239312</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.107195089591101</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.08087944309913515</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.06688049925867276</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.04995041682973641</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.04730537504459939</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.03486846915041749</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.01739905956947448</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.0306029022092155</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.06520426224213903</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.02610519942586692</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.04302604339822153</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>0.02328049278100408</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>0.01254700116293701</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>0.005415880715551732</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>0.001215737103423345</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>0.0007657931919886372</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>4.805745124216787e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>2.940111823263115e-06</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>3.482806005702243e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>7.965236402641701e-08</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.1418140025256318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.143916604334725</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.145124529494807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.1441299050751035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1448824953305611</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.1410407555878936</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1571705427254464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1675467306578604</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1754781189451179</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.1955441700046079</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.2032459416249441</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.2237507536464142</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.2255713227224595</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.2428366344907656</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.2228313279621546</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.2855090121143249</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.2705784260452215</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.2876079051829353</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.174393716366597</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.05987319370423458</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.03134150723696386</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.0171346133833419</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.008257251666042176</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.003890386960669137</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>0.00210113587335098</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>0.001242494824975941</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>0.0008255998922710646</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>0.0004753383192114102</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.1462943572631537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.139979683984997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.1361716483788882</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.1402072234374418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.1370979107176849</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.1460335988170547</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.1163751424816952</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.0948050595440043</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.09019123678499161</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.06138028649897018</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.07400557480469075</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.0555963323258094</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.066363453322246</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.03858039302647012</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.01906448582225437</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.03094197222290441</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>0.01692140018494104</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>0.02712589943285555</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>0.008499556240980841</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>0.00323797063139578</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>0.001093519188320005</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>0.0003412088728950116</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>5.701428649336962e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>1.557153397038846e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>1.944736722623931e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>8.789104912723559e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>4.879410767166603e-07</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>2.343817012036348e-07</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.1462943624368515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.1399796791613757</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1361716377815756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.1402072181800272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.1370979013735064</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.146033668113296</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.1163755179029031</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.09480558147034002</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.09019202307088345</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.06138131304261586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.05372630272160443</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.05743559886723237</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.05177192986057553</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.06230033771545793</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.07579172933336922</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.06220885239738311</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.0732697004699663</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.06503700457094649</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.08393587311043595</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.07166709578060093</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.09352040585123599</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.1119801880409361</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.1119779236647564</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.1361435362729043</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.1173773116773049</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.1205574624451302</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.123347656669232</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.1281336208207842</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1462963100511291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.139977863292629</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1361676484452424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1402052389457935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.1370943837567867</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.1460285348489204</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.1163658289459329</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.09479391047703484</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.09017585398457498</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.06136171802921606</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.06405692170582995</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.07044606561894833</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.07122614409559139</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.07627950265222778</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.06943211350786054</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.08823415599190197</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.08407068236546955</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.08900605527195796</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.05467318234598446</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.01892538867053135</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.01092161109582173</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.006588096639246428</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.003898931742965122</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.002042117916264461</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>0.001519205124422317</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>0.0009581546215659417</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>0.000666352837891958</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>0.0004036441143090616</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1376592135964365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.1470137939765469</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.1527239131835989</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.1463724738098881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.1512799226637562</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.141823826914734</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.1700592325284918</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.191888430293252</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.1911029328345242</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.2142906480752104</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.1837422525317984</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.1942005022854552</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.1727257885900408</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.2081554327135303</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.2604848876630708</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.1869432542138254</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.229534375839906</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.1940230387045718</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.3185798758613211</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.4328645594833739</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.3987645370235667</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.3626382964483786</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.3628546046967669</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.3081198993492689</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.3477481252838986</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.3499782876850228</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.3517057519545685</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.3543092192225282</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.143773150872698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.14225894442839</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.1412758790375981</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.1425800345114516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1415642096274161</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.1373318203276321</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.1541036393598454</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.1651681642589498</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.1723127847250355</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.1923414154137572</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.2377156426615292</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.2044499751547863</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.2395204653490992</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.1635819176720462</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.09228683016038952</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.1558437131611427</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.09317046542468133</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.1393205506231922</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.04600907455122095</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>0.01642499671157463</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>0.005762992195619734</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>0.001906065606562352</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>0.0003463226270818145</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>9.968138991328667e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>1.338214831486713e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>6.191439706605222e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>3.489350834696326e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>1.699879663053563e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.1378686032540995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1468734308213364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.15236474367829</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.1462979060402942</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.1509831765302886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.1417077953904692</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.1695500960556852</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.1909921232985587</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.1905470496548723</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.2137004489356223</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.1835073639496032</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.1941207721013541</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.1728208960599876</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.2082657817295019</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.2601086255509009</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.1903190398985175</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.2324549496698144</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.1978795462135408</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.3139087215234597</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.3970067950182888</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.4585954274084719</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.4994115310086396</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.5126079513158943</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.5496888065770095</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.5312388951559857</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.5272565300731072</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.523450661354125</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.5166762432618027</v>
       </c>
     </row>
   </sheetData>
